--- a/ejercicios/poema 15.xlsx
+++ b/ejercicios/poema 15.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPDS\EXCEL\ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPDS\EXCEL\Curso_de_excel_v1\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Poema 15" sheetId="1" r:id="rId1"/>
+    <sheet name="Poema XX" sheetId="2" r:id="rId1"/>
+    <sheet name="Poema 15" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>POEMA 15</t>
   </si>
@@ -87,13 +88,115 @@
   </si>
   <si>
     <t>Y estoy alegre, alegre de que no sea cierto.</t>
+  </si>
+  <si>
+    <t>Poema XX.</t>
+  </si>
+  <si>
+    <t>Puedo escribir los versos mas tristes esta noche.</t>
+  </si>
+  <si>
+    <t>Escribir, por ejemplo: “La noche está estrellada,</t>
+  </si>
+  <si>
+    <t>y tiritan, azules, los astros, a lo lejos.”</t>
+  </si>
+  <si>
+    <t>El viento de la noche gira en el cielo y canta.</t>
+  </si>
+  <si>
+    <t>Puedo escribir los versos más tristes esta noche.</t>
+  </si>
+  <si>
+    <t>Yo la quise, y a veces ella también me quiso.</t>
+  </si>
+  <si>
+    <t>En las noches como ésta la tuve entre mis brazos.</t>
+  </si>
+  <si>
+    <t>La besé tantas veces bajo el cielo infinito.</t>
+  </si>
+  <si>
+    <t>Ella me quiso, a veces yo tambien la quería.</t>
+  </si>
+  <si>
+    <t>Cómo no haber amado sus grandes ojos fijos.</t>
+  </si>
+  <si>
+    <t>Pensar que no la tengo. Sentir que la he perdido.</t>
+  </si>
+  <si>
+    <t>Oir la noche imnensa, más inmensa sin ella.</t>
+  </si>
+  <si>
+    <t>Y el verso cae al alma como al pasto el rocio.</t>
+  </si>
+  <si>
+    <t>Qué importa que mi amor no pudiera guardala.</t>
+  </si>
+  <si>
+    <t>La noche está estrellada y ella no está conmigo.</t>
+  </si>
+  <si>
+    <t>Eso es todo. A lo lejos alguien canta. A lo lejos.</t>
+  </si>
+  <si>
+    <t>Mi alma no se contenta con haberla perdido.</t>
+  </si>
+  <si>
+    <t>Como para acercarla mi mirada la busca.</t>
+  </si>
+  <si>
+    <t>Mi corazón la busca, y ella no está conmigo.</t>
+  </si>
+  <si>
+    <t>La misma noche que hace blanquear los mismos arboles.</t>
+  </si>
+  <si>
+    <t>Nosotros, los de entonces, ya no somos los mismos.</t>
+  </si>
+  <si>
+    <t>Ya no la quiero, es cierto, pero cuanto la quise.</t>
+  </si>
+  <si>
+    <t>Mi voz buscaba el viento para tocar su oído.</t>
+  </si>
+  <si>
+    <t>De otro. Será de otro. Como antes de mis vesos.</t>
+  </si>
+  <si>
+    <t>Su voz, su cuerpo claro. Sus ojos infinitos.</t>
+  </si>
+  <si>
+    <t>Ya no la quiero, es cierto, pero tal vez la quiero.</t>
+  </si>
+  <si>
+    <t>Es tan corto el amor, y es tan largo el olvido.</t>
+  </si>
+  <si>
+    <t>Porque en noches como ésta la tuve entre mis brazos,</t>
+  </si>
+  <si>
+    <t>mi alma no se contenta con haberla perdido.</t>
+  </si>
+  <si>
+    <t>Aunque éste sea el ultimo dolor que ella me causa,</t>
+  </si>
+  <si>
+    <t>y estos sean los ultimos versos que yo le escribo.</t>
+  </si>
+  <si>
+    <t>Pablo Neruda, de Veinte poemas de amor y una canción desesperada (1924) *</t>
+  </si>
+  <si>
+    <t>En Algún Día: Pablo Neruda.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -113,6 +216,26 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,14 +254,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -148,8 +269,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,6 +565,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="93.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" display="http://www.neruda.uchile.cl/obra/20poemas.htm"/>
+    <hyperlink ref="A37" r:id="rId2" display="https://algundiaenalgunaparte.com/tag/pablo-neruda/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -436,178 +771,193 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -618,21 +968,6 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
